--- a/A-开发相关文档素材/0.设计文档/客户端页面.xlsx
+++ b/A-开发相关文档素材/0.设计文档/客户端页面.xlsx
@@ -14,17 +14,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>文件名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程详情页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程添加页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程编辑页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人列表页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人详情页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人添加页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与群组详情页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与群组添加页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户须知页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒设置页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划详情页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户资料页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户安全页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app详情页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮助及反馈页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -374,23 +462,202 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/A-开发相关文档素材/0.设计文档/客户端页面.xlsx
+++ b/A-开发相关文档素材/0.设计文档/客户端页面.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="页面梳理" sheetId="1" r:id="rId1"/>
+    <sheet name="命名规则" sheetId="2" r:id="rId1"/>
+    <sheet name="页面梳理" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>文件名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,6 +114,10 @@
   </si>
   <si>
     <t>引导页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,18 +467,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -483,8 +502,11 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -492,7 +514,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -500,7 +522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -508,7 +530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -516,7 +538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -524,7 +546,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -532,7 +554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -540,7 +562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -548,7 +570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -556,7 +578,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -564,7 +586,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -572,7 +594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -580,7 +602,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -588,7 +610,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -596,7 +618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>

--- a/A-开发相关文档素材/0.设计文档/客户端页面.xlsx
+++ b/A-开发相关文档素材/0.设计文档/客户端页面.xlsx
@@ -4,24 +4,276 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="命名规则" sheetId="2" r:id="rId1"/>
-    <sheet name="页面梳理" sheetId="1" r:id="rId2"/>
+    <sheet name="A类" sheetId="1" r:id="rId2"/>
+    <sheet name="H类" sheetId="3" r:id="rId3"/>
+    <sheet name="S类" sheetId="4" r:id="rId4"/>
+    <sheet name="P类" sheetId="5" r:id="rId5"/>
+    <sheet name="U类" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="78">
+  <si>
+    <t>注册页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程详情页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程添加页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程编辑页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人列表页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人详情页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人添加页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与群组详情页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与群组添加页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒设置页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划详情页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户资料页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app详情页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮助及反馈页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程业务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人业务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命名例子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a-z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01-99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aa01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命名例子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ha01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sa01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pa01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ua01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>文件名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>序号</t>
+    <t>Az</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户安全页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ad</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -29,95 +281,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Ha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户须知页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>登录页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>注册页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语音页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程详情页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程添加页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程编辑页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与人列表页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与人详情页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与人添加页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与群组详情页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与群组添加页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户须知页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提醒设置页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划详情页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户资料页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户安全页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>app详情页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帮助及反馈页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引导页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辅页面</t>
+    <t>Uc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页日程列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音辅助页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hb01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ha01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -149,7 +361,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -157,12 +369,134 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -467,12 +801,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -481,10 +939,666 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="13" max="13" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -492,199 +1606,955 @@
     <col min="2" max="2" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8">
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="4" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/A-开发相关文档素材/0.设计文档/客户端页面.xlsx
+++ b/A-开发相关文档素材/0.设计文档/客户端页面.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12540" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="命名规则" sheetId="2" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="U类" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="151">
   <si>
     <t>分类</t>
   </si>
@@ -467,19 +467,21 @@
   </si>
   <si>
     <t>UserDetailPage</t>
+  </si>
+  <si>
+    <t>加载页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Al</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,151 +497,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -658,194 +522,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -966,251 +644,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1232,57 +668,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1573,24 +962,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:6">
+    <row r="1" spans="1:6">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1709,24 +1098,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
@@ -1817,8 +1204,12 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="13"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="B7" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
     </row>
@@ -2040,22 +1431,21 @@
       <c r="E38" s="14"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
@@ -2373,21 +1763,20 @@
       <c r="E38" s="14"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
   </cols>
@@ -2705,21 +2094,20 @@
       <c r="E38" s="14"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
   </cols>
@@ -3037,21 +2425,20 @@
       <c r="E38" s="14"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="4" width="13.5" customWidth="1"/>
@@ -3350,17 +2737,16 @@
       <c r="E38" s="14"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -3376,7 +2762,7 @@
     <col min="10" max="10" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:3">
+    <row r="1" spans="2:10">
       <c r="C1" t="s">
         <v>78</v>
       </c>
@@ -3429,7 +2815,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:10">
       <c r="B4" s="1" t="s">
         <v>33</v>
       </c>
@@ -3445,7 +2831,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:10">
       <c r="B5" s="1" t="s">
         <v>35</v>
       </c>
@@ -3461,7 +2847,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:10">
       <c r="B6" s="1" t="s">
         <v>37</v>
       </c>
@@ -3491,7 +2877,7 @@
         <v>81</v>
       </c>
       <c r="F7" s="1" t="str">
-        <f t="shared" ref="F3:F28" si="0">SUBSTITUTE(PROPER(E7),"-","")&amp;"Page"</f>
+        <f t="shared" ref="F7:F28" si="0">SUBSTITUTE(PROPER(E7),"-","")&amp;"Page"</f>
         <v>HomePage</v>
       </c>
       <c r="H7" s="2" t="s">
@@ -3669,7 +3055,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:10">
       <c r="B15" s="1" t="s">
         <v>52</v>
       </c>
@@ -3703,7 +3089,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:10">
       <c r="B17" s="1" t="s">
         <v>56</v>
       </c>
@@ -3716,7 +3102,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:10">
       <c r="B18" s="1" t="s">
         <v>58</v>
       </c>
@@ -3939,11 +3325,11 @@
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="3:5">
+    <row r="31" spans="2:10">
       <c r="C31" s="7"/>
       <c r="E31" s="8"/>
     </row>
-    <row r="32" spans="3:5">
+    <row r="32" spans="2:10">
       <c r="C32" s="7"/>
       <c r="E32" s="9"/>
     </row>
@@ -3951,7 +3337,7 @@
       <c r="C33" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>